--- a/va_facility_data_2025-02-20/Cadillac VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cadillac%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cadillac VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cadillac%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0faae3d2f02846e3bd3c7d436dcc3cbd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9a2a4654441a460db9f72f6e48075771"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9ec017f32e284265a6eb5dcac3b1f58e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfdb766052b144934bf9985a427db90b0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R048f340705994d5f8a8c7fbdfb9536bd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R233cd24328ca4239a43f8dea3dd86c3e"/>
   </x:sheets>
 </x:workbook>
 </file>
